--- a/biology/Zoologie/Crocozona/Crocozona.xlsx
+++ b/biology/Zoologie/Crocozona/Crocozona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocozona est un genre d'insectes lépidoptères de la famille des Riodinidae. Ils résident tous en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Crocozona leur a été donné par Cajetan Freiherr von Felder et Rudolf Felder en 1865.
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Crocozona coecias (Hewitson, 1866) ; présent en Bolivie, en Colombie, au Brésil et au Pérou.
 Crocozona croceifasciata Zikán, 1952 ; présent au Brésil.
 Crocozona fasciata (Hopffer, 1874) ; présent en Bolivie et au Pérou.
-Crocozona pheretima C. &amp; R. Felder, [1865] ; présent en Colombie.</t>
+Crocozona pheretima C. &amp; R. Felder,  ; présent en Colombie.</t>
         </is>
       </c>
     </row>
